--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efna2-Epha5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efna2-Epha5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -455,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,78 +540,78 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.137477</v>
+        <v>1.7317105</v>
       </c>
       <c r="H2">
-        <v>6.274953999999999</v>
+        <v>3.463421</v>
       </c>
       <c r="I2">
-        <v>0.2757933218263555</v>
+        <v>0.2580726189025833</v>
       </c>
       <c r="J2">
-        <v>0.2143624876083055</v>
+        <v>0.2162491041706965</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.331827</v>
+        <v>0.006466</v>
       </c>
       <c r="N2">
-        <v>0.663654</v>
+        <v>0.012932</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.008493427970384656</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.008493427970384656</v>
       </c>
       <c r="Q2">
-        <v>1.041099580479</v>
+        <v>0.011197240093</v>
       </c>
       <c r="R2">
-        <v>4.164398321915999</v>
+        <v>0.04478896037200001</v>
       </c>
       <c r="S2">
-        <v>0.2757933218263555</v>
+        <v>0.002191921199777621</v>
       </c>
       <c r="T2">
-        <v>0.2143624876083055</v>
+        <v>0.001836696189934019</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.309486666666667</v>
+        <v>1.7317105</v>
       </c>
       <c r="H3">
-        <v>6.92846</v>
+        <v>3.463421</v>
       </c>
       <c r="I3">
-        <v>0.2030105717153232</v>
+        <v>0.2580726189025833</v>
       </c>
       <c r="J3">
-        <v>0.2366873001610275</v>
+        <v>0.2162491041706965</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,122 +620,122 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.331827</v>
+        <v>0.7548284999999999</v>
       </c>
       <c r="N3">
-        <v>0.663654</v>
+        <v>1.509657</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.9915065720296153</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.9915065720296153</v>
       </c>
       <c r="Q3">
-        <v>0.7663500321400001</v>
+        <v>1.30714443914925</v>
       </c>
       <c r="R3">
-        <v>4.59810019284</v>
+        <v>5.228577756597</v>
       </c>
       <c r="S3">
-        <v>0.2030105717153232</v>
+        <v>0.2558806977028056</v>
       </c>
       <c r="T3">
-        <v>0.2366873001610275</v>
+        <v>0.2144124079807625</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5867000000000001</v>
+        <v>2.309486666666667</v>
       </c>
       <c r="H4">
-        <v>1.7601</v>
+        <v>6.92846</v>
       </c>
       <c r="I4">
-        <v>0.05157263046566488</v>
+        <v>0.3441772007430018</v>
       </c>
       <c r="J4">
-        <v>0.06012783750117986</v>
+        <v>0.4325992330364988</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.331827</v>
+        <v>0.006466</v>
       </c>
       <c r="N4">
-        <v>0.663654</v>
+        <v>0.012932</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.008493427970384656</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.008493427970384656</v>
       </c>
       <c r="Q4">
-        <v>0.1946829009</v>
+        <v>0.01493314078666667</v>
       </c>
       <c r="R4">
-        <v>1.1680974054</v>
+        <v>0.08959884472000001</v>
       </c>
       <c r="S4">
-        <v>0.05157263046566488</v>
+        <v>0.002923244263559307</v>
       </c>
       <c r="T4">
-        <v>0.06012783750117986</v>
+        <v>0.003674250425839149</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.7184595</v>
+        <v>2.309486666666667</v>
       </c>
       <c r="H5">
-        <v>3.436919000000001</v>
+        <v>6.92846</v>
       </c>
       <c r="I5">
-        <v>0.1510575707579874</v>
+        <v>0.3441772007430018</v>
       </c>
       <c r="J5">
-        <v>0.1174106625400361</v>
+        <v>0.4325992330364988</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,122 +744,122 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.331827</v>
+        <v>0.7548284999999999</v>
       </c>
       <c r="N5">
-        <v>0.663654</v>
+        <v>1.509657</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.9915065720296153</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.9915065720296153</v>
       </c>
       <c r="Q5">
-        <v>0.5702312605065001</v>
+        <v>1.74326635637</v>
       </c>
       <c r="R5">
-        <v>2.280925042026</v>
+        <v>10.45959813822</v>
       </c>
       <c r="S5">
-        <v>0.1510575707579874</v>
+        <v>0.3412539564794425</v>
       </c>
       <c r="T5">
-        <v>0.1174106625400361</v>
+        <v>0.4289249826106597</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.103366333333333</v>
+        <v>2.382906</v>
       </c>
       <c r="H6">
-        <v>6.310098999999999</v>
+        <v>4.765812</v>
       </c>
       <c r="I6">
-        <v>0.1848919970051482</v>
+        <v>0.3551187060531648</v>
       </c>
       <c r="J6">
-        <v>0.2155630971469561</v>
+        <v>0.2975678023682237</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>0.331827</v>
+        <v>0.006466</v>
       </c>
       <c r="N6">
-        <v>0.663654</v>
+        <v>0.012932</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.008493427970384656</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.008493427970384656</v>
       </c>
       <c r="Q6">
-        <v>0.6979537402909999</v>
+        <v>0.015407870196</v>
       </c>
       <c r="R6">
-        <v>4.187722441745999</v>
+        <v>0.06163148078400001</v>
       </c>
       <c r="S6">
-        <v>0.1848919970051482</v>
+        <v>0.003016175150798757</v>
       </c>
       <c r="T6">
-        <v>0.2155630971469561</v>
+        <v>0.002527370695720164</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.520699666666667</v>
+        <v>2.382906</v>
       </c>
       <c r="H7">
-        <v>4.562099</v>
+        <v>4.765812</v>
       </c>
       <c r="I7">
-        <v>0.1336739082295206</v>
+        <v>0.3551187060531648</v>
       </c>
       <c r="J7">
-        <v>0.1558486150424948</v>
+        <v>0.2975678023682237</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,28 +868,276 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.331827</v>
+        <v>0.7548284999999999</v>
       </c>
       <c r="N7">
-        <v>0.663654</v>
+        <v>1.509657</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>0.9915065720296153</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>0.9915065720296153</v>
       </c>
       <c r="Q7">
-        <v>0.504609208291</v>
+        <v>1.798685361621</v>
       </c>
       <c r="R7">
-        <v>3.027655249746</v>
+        <v>7.194741446484</v>
       </c>
       <c r="S7">
-        <v>0.1336739082295206</v>
+        <v>0.352102530902366</v>
       </c>
       <c r="T7">
-        <v>0.1558486150424948</v>
+        <v>0.2950404316725035</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.05833266666666666</v>
+      </c>
+      <c r="H8">
+        <v>0.174998</v>
+      </c>
+      <c r="I8">
+        <v>0.008693175940342274</v>
+      </c>
+      <c r="J8">
+        <v>0.01092652632517489</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.5</v>
+      </c>
+      <c r="M8">
+        <v>0.006466</v>
+      </c>
+      <c r="N8">
+        <v>0.012932</v>
+      </c>
+      <c r="O8">
+        <v>0.008493427970384656</v>
+      </c>
+      <c r="P8">
+        <v>0.008493427970384656</v>
+      </c>
+      <c r="Q8">
+        <v>0.0003771790226666667</v>
+      </c>
+      <c r="R8">
+        <v>0.002263074136</v>
+      </c>
+      <c r="S8">
+        <v>7.383486368317799E-05</v>
+      </c>
+      <c r="T8">
+        <v>9.280366430938467E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.05833266666666666</v>
+      </c>
+      <c r="H9">
+        <v>0.174998</v>
+      </c>
+      <c r="I9">
+        <v>0.008693175940342274</v>
+      </c>
+      <c r="J9">
+        <v>0.01092652632517489</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.7548284999999999</v>
+      </c>
+      <c r="N9">
+        <v>1.509657</v>
+      </c>
+      <c r="O9">
+        <v>0.9915065720296153</v>
+      </c>
+      <c r="P9">
+        <v>0.9915065720296153</v>
+      </c>
+      <c r="Q9">
+        <v>0.04403115928099999</v>
+      </c>
+      <c r="R9">
+        <v>0.2641869556859999</v>
+      </c>
+      <c r="S9">
+        <v>0.008619341076659095</v>
+      </c>
+      <c r="T9">
+        <v>0.01083372266086551</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.2277316666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.683195</v>
+      </c>
+      <c r="I10">
+        <v>0.03393829836090777</v>
+      </c>
+      <c r="J10">
+        <v>0.04265733409940604</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.5</v>
+      </c>
+      <c r="M10">
+        <v>0.006466</v>
+      </c>
+      <c r="N10">
+        <v>0.012932</v>
+      </c>
+      <c r="O10">
+        <v>0.008493427970384656</v>
+      </c>
+      <c r="P10">
+        <v>0.008493427970384656</v>
+      </c>
+      <c r="Q10">
+        <v>0.001472512956666667</v>
+      </c>
+      <c r="R10">
+        <v>0.008835077740000001</v>
+      </c>
+      <c r="S10">
+        <v>0.0002882524925657938</v>
+      </c>
+      <c r="T10">
+        <v>0.0003623069945819385</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.2277316666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.683195</v>
+      </c>
+      <c r="I11">
+        <v>0.03393829836090777</v>
+      </c>
+      <c r="J11">
+        <v>0.04265733409940604</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.7548284999999999</v>
+      </c>
+      <c r="N11">
+        <v>1.509657</v>
+      </c>
+      <c r="O11">
+        <v>0.9915065720296153</v>
+      </c>
+      <c r="P11">
+        <v>0.9915065720296153</v>
+      </c>
+      <c r="Q11">
+        <v>0.1718983523525</v>
+      </c>
+      <c r="R11">
+        <v>1.031390114115</v>
+      </c>
+      <c r="S11">
+        <v>0.03365004586834198</v>
+      </c>
+      <c r="T11">
+        <v>0.04229502710482411</v>
       </c>
     </row>
   </sheetData>
